--- a/Logs/All_Logs.xlsx
+++ b/Logs/All_Logs.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\ISA2\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\ISA2.1.0\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA270001-D5B3-4E68-9719-BBBB366302D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15D2D1-4AE8-431F-A5B5-5F39072FA3D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 2" sheetId="1" r:id="rId1"/>
     <sheet name="Nädal 3" sheetId="4" r:id="rId2"/>
     <sheet name="Nädal 4" sheetId="5" r:id="rId3"/>
     <sheet name="Nädal 5" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
+    <sheet name="Nädal 6" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="30">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Reading the book</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B87B01-A0A3-4853-BB71-AD87FDE8E4AF}">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:J16"/>
     </sheetView>
   </sheetViews>
@@ -2291,11 +2294,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9876B0-6C98-43D9-B7DF-E84CEB6B4849}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2338,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="38">
-        <v>43516</v>
+        <v>43529</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -2392,24 +2399,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="17">
-        <v>43514</v>
+        <v>43529</v>
       </c>
       <c r="C7" s="18">
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D7" s="18">
-        <v>0.72916666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>90</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>13</v>
+        <v>150.00000000000011</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -2419,24 +2426,24 @@
         <v>2</v>
       </c>
       <c r="B8" s="7">
-        <v>43516</v>
+        <v>43530</v>
       </c>
       <c r="C8" s="8">
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F15" si="0">(D8-C8)*24*60 - E8</f>
-        <v>240</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -2446,26 +2453,26 @@
         <v>3</v>
       </c>
       <c r="B9" s="7">
-        <v>43517</v>
+        <v>43531</v>
       </c>
       <c r="C9" s="8">
-        <v>0.47569444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="D9" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E9" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>145.00000000000009</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -2476,21 +2483,21 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
-        <v>0.71527777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D10" s="8">
-        <v>0.75694444444444453</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>60.000000000000107</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
@@ -2500,18 +2507,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>43518</v>
+        <v>43532</v>
       </c>
       <c r="C11" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>120.00000000000006</v>
+        <v>210.00000000000006</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>12</v>
@@ -2539,7 +2546,7 @@
         <v>210.00000000000006</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>25</v>
@@ -2552,18 +2559,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="7">
-        <v>43519</v>
+        <v>43533</v>
       </c>
       <c r="C13" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D13" s="8">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>209.99999999999997</v>
+        <v>135</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>14</v>
@@ -2578,17 +2585,19 @@
       <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>43534</v>
+      </c>
       <c r="C14" s="8">
-        <v>0.6791666666666667</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D14" s="8">
-        <v>0.71597222222222223</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>52.999999999999972</v>
+        <v>119.99999999999997</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
@@ -2636,7 +2645,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="24">
         <f>SUM(F7:F15)</f>
-        <v>1192.0000000000002</v>
+        <v>1319.0000000000002</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>

--- a/Logs/All_Logs.xlsx
+++ b/Logs/All_Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\ISA2.1.0\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15D2D1-4AE8-431F-A5B5-5F39072FA3D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF2F2A-EA02-41A7-8A66-757A3CCCC02D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,18 +2613,18 @@
         <v>9</v>
       </c>
       <c r="B15" s="7">
-        <v>43521</v>
+        <v>43535</v>
       </c>
       <c r="C15" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D15" s="8">
-        <v>0.71111111111111114</v>
+        <v>0.92013888888888884</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>64.000000000000085</v>
+        <v>64.999999999999929</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>14</v>
@@ -2645,7 +2645,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="24">
         <f>SUM(F7:F15)</f>
-        <v>1319.0000000000002</v>
+        <v>1320.0000000000002</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
